--- a/Internal_design_documents/Resumen_Slope_And_BPoints.xlsx
+++ b/Internal_design_documents/Resumen_Slope_And_BPoints.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Escritorio\MQSensorsLib_Docs\Internal_design_documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C63D1B-892C-48EB-944D-C34F37ED7D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7965"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -285,6 +291,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,11 +306,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,12 +319,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +402,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,6 +454,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,146 +646,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="8" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="8" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="8" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="8" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="8" t="s">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="9"/>
+      <c r="AM2" s="11"/>
     </row>
     <row r="3" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1130,10 +1176,10 @@
       <c r="K6" s="1">
         <v>9.0374999999999996</v>
       </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -1249,88 +1295,88 @@
       <c r="K7" s="2">
         <v>4.8044000000000002</v>
       </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>0</v>
-      </c>
-      <c r="T7" s="12">
-        <v>0</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0</v>
-      </c>
-      <c r="W7" s="12">
-        <v>0</v>
-      </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="12">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2286,17 +2332,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="S1:AD1"/>
@@ -2313,6 +2356,12 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2320,24 +2369,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
